--- a/Meet2/Missing data/Manufacturing_filled.xlsx
+++ b/Meet2/Missing data/Manufacturing_filled.xlsx
@@ -10,63 +10,63 @@
     <sheet name="CHN Mean" sheetId="1" r:id="rId1"/>
     <sheet name="CHN Median" sheetId="2" r:id="rId2"/>
     <sheet name="CHN LOCF" sheetId="3" r:id="rId3"/>
-    <sheet name="CHNNOCB" sheetId="4" r:id="rId4"/>
-    <sheet name="CHNRolling statistics" sheetId="5" r:id="rId5"/>
-    <sheet name="CHNInterpolate" sheetId="6" r:id="rId6"/>
+    <sheet name="CHN NOCB" sheetId="4" r:id="rId4"/>
+    <sheet name="CHN Rolling statistics" sheetId="5" r:id="rId5"/>
+    <sheet name="CHN Interpolate" sheetId="6" r:id="rId6"/>
     <sheet name="GBR Mean" sheetId="7" r:id="rId7"/>
     <sheet name="GBR Median" sheetId="8" r:id="rId8"/>
     <sheet name="GBR LOCF" sheetId="9" r:id="rId9"/>
-    <sheet name="GBRNOCB" sheetId="10" r:id="rId10"/>
-    <sheet name="GBRRolling statistics" sheetId="11" r:id="rId11"/>
-    <sheet name="GBRInterpolate" sheetId="12" r:id="rId12"/>
+    <sheet name="GBR NOCB" sheetId="10" r:id="rId10"/>
+    <sheet name="GBR Rolling statistics" sheetId="11" r:id="rId11"/>
+    <sheet name="GBR Interpolate" sheetId="12" r:id="rId12"/>
     <sheet name="HKG Mean" sheetId="13" r:id="rId13"/>
     <sheet name="HKG Median" sheetId="14" r:id="rId14"/>
     <sheet name="HKG LOCF" sheetId="15" r:id="rId15"/>
-    <sheet name="HKGNOCB" sheetId="16" r:id="rId16"/>
-    <sheet name="HKGRolling statistics" sheetId="17" r:id="rId17"/>
-    <sheet name="HKGInterpolate" sheetId="18" r:id="rId18"/>
+    <sheet name="HKG NOCB" sheetId="16" r:id="rId16"/>
+    <sheet name="HKG Rolling statistics" sheetId="17" r:id="rId17"/>
+    <sheet name="HKG Interpolate" sheetId="18" r:id="rId18"/>
     <sheet name="IND Mean" sheetId="19" r:id="rId19"/>
     <sheet name="IND Median" sheetId="20" r:id="rId20"/>
     <sheet name="IND LOCF" sheetId="21" r:id="rId21"/>
-    <sheet name="INDNOCB" sheetId="22" r:id="rId22"/>
-    <sheet name="INDRolling statistics" sheetId="23" r:id="rId23"/>
-    <sheet name="INDInterpolate" sheetId="24" r:id="rId24"/>
+    <sheet name="IND NOCB" sheetId="22" r:id="rId22"/>
+    <sheet name="IND Rolling statistics" sheetId="23" r:id="rId23"/>
+    <sheet name="IND Interpolate" sheetId="24" r:id="rId24"/>
     <sheet name="IRN Mean" sheetId="25" r:id="rId25"/>
     <sheet name="IRN Median" sheetId="26" r:id="rId26"/>
     <sheet name="IRN LOCF" sheetId="27" r:id="rId27"/>
-    <sheet name="IRNNOCB" sheetId="28" r:id="rId28"/>
-    <sheet name="IRNRolling statistics" sheetId="29" r:id="rId29"/>
-    <sheet name="IRNInterpolate" sheetId="30" r:id="rId30"/>
+    <sheet name="IRN NOCB" sheetId="28" r:id="rId28"/>
+    <sheet name="IRN Rolling statistics" sheetId="29" r:id="rId29"/>
+    <sheet name="IRN Interpolate" sheetId="30" r:id="rId30"/>
     <sheet name="ITA Mean" sheetId="31" r:id="rId31"/>
     <sheet name="ITA Median" sheetId="32" r:id="rId32"/>
     <sheet name="ITA LOCF" sheetId="33" r:id="rId33"/>
-    <sheet name="ITANOCB" sheetId="34" r:id="rId34"/>
-    <sheet name="ITARolling statistics" sheetId="35" r:id="rId35"/>
-    <sheet name="ITAInterpolate" sheetId="36" r:id="rId36"/>
+    <sheet name="ITA NOCB" sheetId="34" r:id="rId34"/>
+    <sheet name="ITA Rolling statistics" sheetId="35" r:id="rId35"/>
+    <sheet name="ITA Interpolate" sheetId="36" r:id="rId36"/>
     <sheet name="RUS Mean" sheetId="37" r:id="rId37"/>
     <sheet name="RUS Median" sheetId="38" r:id="rId38"/>
     <sheet name="RUS LOCF" sheetId="39" r:id="rId39"/>
-    <sheet name="RUSNOCB" sheetId="40" r:id="rId40"/>
-    <sheet name="RUSRolling statistics" sheetId="41" r:id="rId41"/>
-    <sheet name="RUSInterpolate" sheetId="42" r:id="rId42"/>
+    <sheet name="RUS NOCB" sheetId="40" r:id="rId40"/>
+    <sheet name="RUS Rolling statistics" sheetId="41" r:id="rId41"/>
+    <sheet name="RUS Interpolate" sheetId="42" r:id="rId42"/>
     <sheet name="USA Mean" sheetId="43" r:id="rId43"/>
     <sheet name="USA Median" sheetId="44" r:id="rId44"/>
     <sheet name="USA LOCF" sheetId="45" r:id="rId45"/>
-    <sheet name="USANOCB" sheetId="46" r:id="rId46"/>
-    <sheet name="USARolling statistics" sheetId="47" r:id="rId47"/>
-    <sheet name="USAInterpolate" sheetId="48" r:id="rId48"/>
+    <sheet name="USA NOCB" sheetId="46" r:id="rId46"/>
+    <sheet name="USA Rolling statistics" sheetId="47" r:id="rId47"/>
+    <sheet name="USA Interpolate" sheetId="48" r:id="rId48"/>
     <sheet name="VNM Mean" sheetId="49" r:id="rId49"/>
     <sheet name="VNM Median" sheetId="50" r:id="rId50"/>
     <sheet name="VNM LOCF" sheetId="51" r:id="rId51"/>
-    <sheet name="VNMNOCB" sheetId="52" r:id="rId52"/>
-    <sheet name="VNMRolling statistics" sheetId="53" r:id="rId53"/>
-    <sheet name="VNMInterpolate" sheetId="54" r:id="rId54"/>
+    <sheet name="VNM NOCB" sheetId="52" r:id="rId52"/>
+    <sheet name="VNM Rolling statistics" sheetId="53" r:id="rId53"/>
+    <sheet name="VNM Interpolate" sheetId="54" r:id="rId54"/>
     <sheet name="ZAF Mean" sheetId="55" r:id="rId55"/>
     <sheet name="ZAF Median" sheetId="56" r:id="rId56"/>
     <sheet name="ZAF LOCF" sheetId="57" r:id="rId57"/>
-    <sheet name="ZAFNOCB" sheetId="58" r:id="rId58"/>
-    <sheet name="ZAFRolling statistics" sheetId="59" r:id="rId59"/>
-    <sheet name="ZAFInterpolate" sheetId="60" r:id="rId60"/>
+    <sheet name="ZAF NOCB" sheetId="58" r:id="rId58"/>
+    <sheet name="ZAF Rolling statistics" sheetId="59" r:id="rId59"/>
+    <sheet name="ZAF Interpolate" sheetId="60" r:id="rId60"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>1980.543213616863</v>
+        <v>1981</v>
       </c>
       <c r="C3">
         <v>1510.207981851588</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>1981.114950098659</v>
+        <v>1982</v>
       </c>
       <c r="C4">
         <v>1510.675815865367</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>1981.714786492117</v>
+        <v>1983</v>
       </c>
       <c r="C5">
         <v>1580.402717803669</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>1982.342143124949</v>
+        <v>1984</v>
       </c>
       <c r="C6">
         <v>1748.688021694026</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>1982.996295456185</v>
+        <v>1985</v>
       </c>
       <c r="C7">
         <v>1884.155565492596</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>1983.676388483303</v>
+        <v>1986</v>
       </c>
       <c r="C8">
         <v>2034.303468693232</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>1984.381453158783</v>
+        <v>1987</v>
       </c>
       <c r="C9">
         <v>2209.995518033693</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>1985.110424221068</v>
+        <v>1988</v>
       </c>
       <c r="C10">
         <v>2396.20044649087</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>1985.862158830663</v>
+        <v>1989</v>
       </c>
       <c r="C11">
         <v>2599.326120662081</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>1986.635455419496</v>
+        <v>1990</v>
       </c>
       <c r="C12">
         <v>2828.45977616783</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>1987.429072206402</v>
+        <v>1991</v>
       </c>
       <c r="C13">
         <v>3045.738927747002</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>1988.241744898137</v>
+        <v>1992</v>
       </c>
       <c r="C14">
         <v>3329.042999909568</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>1989.072203177044</v>
+        <v>1993</v>
       </c>
       <c r="C15">
         <v>3691.359782106766</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>1989.919185666661</v>
+        <v>1994</v>
       </c>
       <c r="C16">
         <v>4157.810691546193</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>1990.781453158784</v>
+        <v>1995</v>
       </c>
       <c r="C17">
         <v>4611.411092382475</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>1991.657799974372</v>
+        <v>1996</v>
       </c>
       <c r="C18">
         <v>5116.322213314633</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>1992.54706341181</v>
+        <v>1997</v>
       </c>
       <c r="C19">
         <v>5338.426315039782</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>1993.448131306364</v>
+        <v>1998</v>
       </c>
       <c r="C20">
         <v>5226.898439401405</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>1994.359947782439</v>
+        <v>1999</v>
       </c>
       <c r="C21">
         <v>5177.348739121452</v>
@@ -3744,7 +3744,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>1995.281517324803</v>
+        <v>2000</v>
       </c>
       <c r="C22">
         <v>5174.656483740461</v>
@@ -3770,7 +3770,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>1996.211907326465</v>
+        <v>2001</v>
       </c>
       <c r="C23">
         <v>5072.789251345994</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>1997.150249290606</v>
+        <v>2002</v>
       </c>
       <c r="C24">
         <v>5051.347434894566</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>1998.095738873069</v>
+        <v>2003</v>
       </c>
       <c r="C25">
         <v>5068.859547663385</v>
@@ -3848,7 +3848,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>1999.047634952404</v>
+        <v>2004</v>
       </c>
       <c r="C26">
         <v>5170.369752941345</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>2000.005257908035</v>
+        <v>2005</v>
       </c>
       <c r="C27">
         <v>5303.589628634413</v>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>2000.967987275541</v>
+        <v>2006</v>
       </c>
       <c r="C28">
         <v>5450.009700261183</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>2001.935258933062</v>
+        <v>2007</v>
       </c>
       <c r="B29">
         <v>3.99</v>
@@ -3961,7 +3961,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>2002.906561955728</v>
+        <v>2008</v>
       </c>
       <c r="B30">
         <v>3.99</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>2003.881435257018</v>
+        <v>2009</v>
       </c>
       <c r="B31">
         <v>3.99</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>2004.859464118004</v>
+        <v>2010</v>
       </c>
       <c r="B32">
         <v>3.964915395232984</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>2005.840276688195</v>
+        <v>2011</v>
       </c>
       <c r="B33">
         <v>3.964915395232984</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>2006.823540525633</v>
+        <v>2012</v>
       </c>
       <c r="B34">
         <v>3.934403659661257</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>2007.808959229388</v>
+        <v>2013</v>
       </c>
       <c r="B35">
         <v>3.934403659661257</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>2008.796269204708</v>
+        <v>2014</v>
       </c>
       <c r="B36">
         <v>3.966445292812661</v>
@@ -4185,7 +4185,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>2009.785236589964</v>
+        <v>2015</v>
       </c>
       <c r="B37">
         <v>3.966445292812661</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>2010.775654365047</v>
+        <v>2016</v>
       </c>
       <c r="B38">
         <v>4.003698276669318</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>2011.767339653018</v>
+        <v>2017</v>
       </c>
       <c r="B39">
         <v>4.003698276669318</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>2012.760131220396</v>
+        <v>2018</v>
       </c>
       <c r="B40">
         <v>3.999069403128741</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>2013.753887176378</v>
+        <v>2019</v>
       </c>
       <c r="B41">
         <v>3.999069403128741</v>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>2014.748482867298</v>
+        <v>2020</v>
       </c>
       <c r="B42">
         <v>3.999069403128741</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>2015.743808959688</v>
+        <v>2021</v>
       </c>
       <c r="B43">
         <v>3.999069403128741</v>
@@ -10552,7 +10552,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>1980.543213616863</v>
+        <v>1981</v>
       </c>
       <c r="G3">
         <v>5858.437618627314</v>
@@ -10563,7 +10563,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>1981.114950098659</v>
+        <v>1982</v>
       </c>
       <c r="G4">
         <v>5966.501242865509</v>
@@ -10574,7 +10574,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>1981.714786492117</v>
+        <v>1983</v>
       </c>
       <c r="G5">
         <v>5848.361706710885</v>
@@ -10585,7 +10585,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>1982.342143124949</v>
+        <v>1984</v>
       </c>
       <c r="G6">
         <v>5947.154817515862</v>
@@ -10596,7 +10596,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>1982.996295456185</v>
+        <v>1985</v>
       </c>
       <c r="G7">
         <v>6093.787517507022</v>
@@ -10607,7 +10607,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>1983.676388483303</v>
+        <v>1986</v>
       </c>
       <c r="G8">
         <v>6397.469228254755</v>
@@ -10618,7 +10618,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>1984.381453158783</v>
+        <v>1987</v>
       </c>
       <c r="G9">
         <v>6964.697558792501</v>
@@ -10629,7 +10629,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>1985.110424221068</v>
+        <v>1988</v>
       </c>
       <c r="G10">
         <v>7699.007404162735</v>
@@ -10640,7 +10640,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>1985.862158830663</v>
+        <v>1989</v>
       </c>
       <c r="G11">
         <v>8549.153062347825</v>
@@ -10651,7 +10651,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>1986.635455419496</v>
+        <v>1990</v>
       </c>
       <c r="G12">
         <v>9471.686046948987</v>
@@ -10662,7 +10662,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>1987.429072206402</v>
+        <v>1991</v>
       </c>
       <c r="G13">
         <v>10561.62248283803</v>
@@ -10673,7 +10673,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>1988.241744898137</v>
+        <v>1992</v>
       </c>
       <c r="G14">
         <v>11879.91306937856</v>
@@ -10684,7 +10684,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>1989.072203177044</v>
+        <v>1993</v>
       </c>
       <c r="G15">
         <v>13366.141515983</v>
@@ -10695,7 +10695,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>1989.919185666661</v>
+        <v>1994</v>
       </c>
       <c r="G16">
         <v>14936.49911635781</v>
@@ -10706,7 +10706,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>1990.781453158784</v>
+        <v>1995</v>
       </c>
       <c r="E17">
         <v>41</v>
@@ -10720,7 +10720,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>1991.657799974372</v>
+        <v>1996</v>
       </c>
       <c r="E18">
         <v>41</v>
@@ -10734,7 +10734,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>1992.54706341181</v>
+        <v>1997</v>
       </c>
       <c r="C19">
         <v>2325.3000488281</v>
@@ -10751,7 +10751,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>1993.448131306364</v>
+        <v>1998</v>
       </c>
       <c r="C20">
         <v>3317.099497020608</v>
@@ -10768,7 +10768,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>1994.359947782439</v>
+        <v>1999</v>
       </c>
       <c r="C21">
         <v>3799.281269794023</v>
@@ -10785,7 +10785,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>1995.281517324803</v>
+        <v>2000</v>
       </c>
       <c r="C22">
         <v>4216.842177966867</v>
@@ -10808,7 +10808,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>1996.211907326465</v>
+        <v>2001</v>
       </c>
       <c r="C23">
         <v>4449.966388016234</v>
@@ -10831,7 +10831,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>1997.150249290606</v>
+        <v>2002</v>
       </c>
       <c r="C24">
         <v>4761.229126016598</v>
@@ -10854,7 +10854,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>1998.095738873069</v>
+        <v>2003</v>
       </c>
       <c r="C25">
         <v>4992.067088699974</v>
@@ -10877,7 +10877,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>1999.047634952404</v>
+        <v>2004</v>
       </c>
       <c r="C26">
         <v>5403.522092600229</v>
@@ -10900,7 +10900,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>2000.005257908035</v>
+        <v>2005</v>
       </c>
       <c r="C27">
         <v>5879.024437556242</v>
@@ -10926,7 +10926,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>2000.967987275541</v>
+        <v>2006</v>
       </c>
       <c r="C28">
         <v>6351.943084703285</v>
@@ -10955,7 +10955,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>2001.935258933062</v>
+        <v>2007</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -10987,7 +10987,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>2002.906561955728</v>
+        <v>2008</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -11019,7 +11019,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>2003.881435257018</v>
+        <v>2009</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -11051,7 +11051,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>2004.859464118004</v>
+        <v>2010</v>
       </c>
       <c r="B32">
         <v>3.924746185698951</v>
@@ -11083,7 +11083,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>2005.840276688195</v>
+        <v>2011</v>
       </c>
       <c r="B33">
         <v>3.924746185698951</v>
@@ -11115,7 +11115,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>2006.823540525633</v>
+        <v>2012</v>
       </c>
       <c r="B34">
         <v>4.016519989585424</v>
@@ -11147,7 +11147,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>2007.808959229388</v>
+        <v>2013</v>
       </c>
       <c r="B35">
         <v>4.016519989585424</v>
@@ -11179,7 +11179,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>2008.796269204708</v>
+        <v>2014</v>
       </c>
       <c r="B36">
         <v>3.940750806944481</v>
@@ -11211,7 +11211,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>2009.785236589964</v>
+        <v>2015</v>
       </c>
       <c r="B37">
         <v>3.940750806944481</v>
@@ -11243,7 +11243,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>2010.775654365047</v>
+        <v>2016</v>
       </c>
       <c r="B38">
         <v>3.987072551300997</v>
@@ -11275,7 +11275,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>2011.767339653018</v>
+        <v>2017</v>
       </c>
       <c r="B39">
         <v>3.987072551300997</v>
@@ -11307,7 +11307,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>2012.760131220396</v>
+        <v>2018</v>
       </c>
       <c r="B40">
         <v>3.964407630339692</v>
@@ -11339,7 +11339,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>2013.753887176378</v>
+        <v>2019</v>
       </c>
       <c r="B41">
         <v>3.964407630339692</v>
@@ -11371,7 +11371,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>2014.748482867298</v>
+        <v>2020</v>
       </c>
       <c r="B42">
         <v>3.964407630339692</v>
@@ -11403,7 +11403,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>2015.743808959688</v>
+        <v>2021</v>
       </c>
       <c r="B43">
         <v>3.964407630339692</v>
@@ -19642,7 +19642,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>1980.543213616863</v>
+        <v>1981</v>
       </c>
       <c r="C3">
         <v>390.6618948900734</v>
@@ -19662,7 +19662,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>1981.114950098659</v>
+        <v>1982</v>
       </c>
       <c r="C4">
         <v>398.2121597536747</v>
@@ -19682,7 +19682,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>1981.714786492117</v>
+        <v>1983</v>
       </c>
       <c r="C5">
         <v>418.3826269208826</v>
@@ -19702,7 +19702,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>1982.342143124949</v>
+        <v>1984</v>
       </c>
       <c r="C6">
         <v>453.2799907226614</v>
@@ -19722,7 +19722,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>1982.996295456185</v>
+        <v>1985</v>
       </c>
       <c r="C7">
         <v>462.2436945929825</v>
@@ -19742,7 +19742,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>1983.676388483303</v>
+        <v>1986</v>
       </c>
       <c r="C8">
         <v>479.7812056055009</v>
@@ -19762,7 +19762,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>1984.381453158783</v>
+        <v>1987</v>
       </c>
       <c r="C9">
         <v>514.8728390918357</v>
@@ -19782,7 +19782,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>1985.110424221068</v>
+        <v>1988</v>
       </c>
       <c r="C10">
         <v>541.3493757806669</v>
@@ -19802,7 +19802,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>1985.862158830663</v>
+        <v>1989</v>
       </c>
       <c r="C11">
         <v>568.2622066984776</v>
@@ -19822,7 +19822,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>1986.635455419496</v>
+        <v>1990</v>
       </c>
       <c r="C12">
         <v>585.9485070225282</v>
@@ -19842,7 +19842,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>1987.429072206402</v>
+        <v>1991</v>
       </c>
       <c r="C13">
         <v>569.0656163544869</v>
@@ -19862,7 +19862,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>1988.241744898137</v>
+        <v>1992</v>
       </c>
       <c r="C14">
         <v>544.2342380280345</v>
@@ -19882,7 +19882,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>1989.072203177044</v>
+        <v>1993</v>
       </c>
       <c r="C15">
         <v>514.2440068227093</v>
@@ -19902,7 +19902,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>1989.919185666661</v>
+        <v>1994</v>
       </c>
       <c r="C16">
         <v>522.7272383361861</v>
@@ -19922,7 +19922,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>1990.781453158784</v>
+        <v>1995</v>
       </c>
       <c r="C17">
         <v>544.9886361880834</v>
@@ -19945,7 +19945,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>1991.657799974372</v>
+        <v>1996</v>
       </c>
       <c r="C18">
         <v>548.3491301121086</v>
@@ -19968,7 +19968,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>1992.54706341181</v>
+        <v>1997</v>
       </c>
       <c r="C19">
         <v>544.9618107856941</v>
@@ -19991,7 +19991,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>1993.448131306364</v>
+        <v>1998</v>
       </c>
       <c r="C20">
         <v>542.7042693892931</v>
@@ -20014,7 +20014,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>1994.359947782439</v>
+        <v>1999</v>
       </c>
       <c r="C21">
         <v>540.8148566847294</v>
@@ -20037,7 +20037,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>1995.281517324803</v>
+        <v>2000</v>
       </c>
       <c r="C22">
         <v>541.9320277308605</v>
@@ -20063,7 +20063,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>1996.211907326465</v>
+        <v>2001</v>
       </c>
       <c r="C23">
         <v>537.6104189356015</v>
@@ -20089,7 +20089,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>1997.150249290606</v>
+        <v>2002</v>
       </c>
       <c r="C24">
         <v>539.0256229940221</v>
@@ -20115,7 +20115,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>1998.095738873069</v>
+        <v>2003</v>
       </c>
       <c r="C25">
         <v>545.6240277957338</v>
@@ -20141,7 +20141,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>1999.047634952404</v>
+        <v>2004</v>
       </c>
       <c r="C26">
         <v>571.87916770649</v>
@@ -20167,7 +20167,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>2000.005257908035</v>
+        <v>2005</v>
       </c>
       <c r="C27">
         <v>604.4030220376154</v>
@@ -20193,7 +20193,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>2000.967987275541</v>
+        <v>2006</v>
       </c>
       <c r="C28">
         <v>642.6483853826581</v>
@@ -20225,7 +20225,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>2001.935258933062</v>
+        <v>2007</v>
       </c>
       <c r="B29">
         <v>3.07</v>
@@ -20260,7 +20260,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>2002.906561955728</v>
+        <v>2008</v>
       </c>
       <c r="B30">
         <v>3.07</v>
@@ -20295,7 +20295,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>2003.881435257018</v>
+        <v>2009</v>
       </c>
       <c r="B31">
         <v>3.07</v>
@@ -20330,7 +20330,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>2004.859464118004</v>
+        <v>2010</v>
       </c>
       <c r="B32">
         <v>3.101355755958771</v>
@@ -20365,7 +20365,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>2005.840276688195</v>
+        <v>2011</v>
       </c>
       <c r="B33">
         <v>3.101355755958771</v>
@@ -20400,7 +20400,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>2006.823540525633</v>
+        <v>2012</v>
       </c>
       <c r="B34">
         <v>3.091318057252482</v>
@@ -20435,7 +20435,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>2007.808959229388</v>
+        <v>2013</v>
       </c>
       <c r="B35">
         <v>3.091318057252482</v>
@@ -20470,7 +20470,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>2008.796269204708</v>
+        <v>2014</v>
       </c>
       <c r="B36">
         <v>3.086853507246008</v>
@@ -20505,7 +20505,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>2009.785236589964</v>
+        <v>2015</v>
       </c>
       <c r="B37">
         <v>3.086853507246008</v>
@@ -20540,7 +20540,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>2010.775654365047</v>
+        <v>2016</v>
       </c>
       <c r="B38">
         <v>3.207100135980677</v>
@@ -20575,7 +20575,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>2011.767339653018</v>
+        <v>2017</v>
       </c>
       <c r="B39">
         <v>3.207100135980677</v>
@@ -20610,7 +20610,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>2012.760131220396</v>
+        <v>2018</v>
       </c>
       <c r="B40">
         <v>3.197942553212038</v>
@@ -20645,7 +20645,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>2013.753887176378</v>
+        <v>2019</v>
       </c>
       <c r="B41">
         <v>3.197942553212038</v>
@@ -20680,7 +20680,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>2014.748482867298</v>
+        <v>2020</v>
       </c>
       <c r="B42">
         <v>3.197942553212038</v>
@@ -20715,7 +20715,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>2015.743808959688</v>
+        <v>2021</v>
       </c>
       <c r="B43">
         <v>3.197942553212038</v>
@@ -27211,7 +27211,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>1980.543213616863</v>
+        <v>1981</v>
       </c>
       <c r="C3">
         <v>28.61116716063107</v>
@@ -27231,7 +27231,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>1981.114950098659</v>
+        <v>1982</v>
       </c>
       <c r="C4">
         <v>33.90505035995898</v>
@@ -27251,7 +27251,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>1981.714786492117</v>
+        <v>1983</v>
       </c>
       <c r="C5">
         <v>46.88629484340377</v>
@@ -27271,7 +27271,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>1982.342143124949</v>
+        <v>1984</v>
       </c>
       <c r="C6">
         <v>58.80460256668979</v>
@@ -27291,7 +27291,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>1982.996295456185</v>
+        <v>1985</v>
       </c>
       <c r="C7">
         <v>70.00194075567344</v>
@@ -27311,7 +27311,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>1983.676388483303</v>
+        <v>1986</v>
       </c>
       <c r="C8">
         <v>84.03942252921151</v>
@@ -27331,7 +27331,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>1984.381453158783</v>
+        <v>1987</v>
       </c>
       <c r="C9">
         <v>95.44409063479172</v>
@@ -27351,7 +27351,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>1985.110424221068</v>
+        <v>1988</v>
       </c>
       <c r="C10">
         <v>100.5118511654773</v>
@@ -27371,7 +27371,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>1985.862158830663</v>
+        <v>1989</v>
       </c>
       <c r="C11">
         <v>98.92475509468655</v>
@@ -27391,7 +27391,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>1986.635455419496</v>
+        <v>1990</v>
       </c>
       <c r="C12">
         <v>101.6860123921335</v>
@@ -27411,7 +27411,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>1987.429072206402</v>
+        <v>1991</v>
       </c>
       <c r="C13">
         <v>98.85196589354538</v>
@@ -27431,7 +27431,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>1988.241744898137</v>
+        <v>1992</v>
       </c>
       <c r="C14">
         <v>93.1000572236165</v>
@@ -27451,7 +27451,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>1989.072203177044</v>
+        <v>1993</v>
       </c>
       <c r="C15">
         <v>87.32310412522311</v>
@@ -27471,7 +27471,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>1989.919185666661</v>
+        <v>1994</v>
       </c>
       <c r="C16">
         <v>85.85816601478862</v>
@@ -27491,7 +27491,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>1990.781453158784</v>
+        <v>1995</v>
       </c>
       <c r="C17">
         <v>89.59889672860812</v>
@@ -27514,7 +27514,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>1991.657799974372</v>
+        <v>1996</v>
       </c>
       <c r="C18">
         <v>92.95766735120357</v>
@@ -27537,7 +27537,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>1992.54706341181</v>
+        <v>1997</v>
       </c>
       <c r="C19">
         <v>97.49242972345611</v>
@@ -27560,7 +27560,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>1993.448131306364</v>
+        <v>1998</v>
       </c>
       <c r="C20">
         <v>98.28685487526592</v>
@@ -27583,7 +27583,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>1994.359947782439</v>
+        <v>1999</v>
       </c>
       <c r="C21">
         <v>99.73428996115832</v>
@@ -27606,7 +27606,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>1995.281517324803</v>
+        <v>2000</v>
       </c>
       <c r="C22">
         <v>95.48346072427552</v>
@@ -27629,7 +27629,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>1996.211907326465</v>
+        <v>2001</v>
       </c>
       <c r="C23">
         <v>104.7012463284087</v>
@@ -27652,7 +27652,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>1997.150249290606</v>
+        <v>2002</v>
       </c>
       <c r="C24">
         <v>99.96028845378628</v>
@@ -27678,7 +27678,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>1998.095738873069</v>
+        <v>2003</v>
       </c>
       <c r="C25">
         <v>109.2400114461335</v>
@@ -27704,7 +27704,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>1999.047634952404</v>
+        <v>2004</v>
       </c>
       <c r="C26">
         <v>105.982360291978</v>
@@ -27730,7 +27730,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>2000.005257908035</v>
+        <v>2005</v>
       </c>
       <c r="C27">
         <v>104.7332215728416</v>
@@ -27756,7 +27756,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>2000.967987275541</v>
+        <v>2006</v>
       </c>
       <c r="C28">
         <v>102.6658384773805</v>
@@ -27782,7 +27782,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>2001.935258933062</v>
+        <v>2007</v>
       </c>
       <c r="B29">
         <v>2.51</v>
@@ -27811,7 +27811,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>2002.906561955728</v>
+        <v>2008</v>
       </c>
       <c r="B30">
         <v>2.51</v>
@@ -27840,7 +27840,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>2003.881435257018</v>
+        <v>2009</v>
       </c>
       <c r="B31">
         <v>2.51</v>
@@ -27869,7 +27869,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>2004.859464118004</v>
+        <v>2010</v>
       </c>
       <c r="B32">
         <v>2.547626907150524</v>
@@ -27898,7 +27898,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>2005.840276688195</v>
+        <v>2011</v>
       </c>
       <c r="B33">
         <v>2.547626907150524</v>
@@ -27927,7 +27927,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>2006.823540525633</v>
+        <v>2012</v>
       </c>
       <c r="B34">
         <v>2.520540929371561</v>
@@ -27956,7 +27956,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>2007.808959229388</v>
+        <v>2013</v>
       </c>
       <c r="B35">
         <v>2.520540929371561</v>
@@ -27985,7 +27985,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>2008.796269204708</v>
+        <v>2014</v>
       </c>
       <c r="B36">
         <v>2.520540929371561</v>
@@ -28014,7 +28014,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>2009.785236589964</v>
+        <v>2015</v>
       </c>
       <c r="B37">
         <v>2.520540929371561</v>
@@ -28043,7 +28043,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>2010.775654365047</v>
+        <v>2016</v>
       </c>
       <c r="B38">
         <v>2.559650315362632</v>
@@ -28072,7 +28072,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>2011.767339653018</v>
+        <v>2017</v>
       </c>
       <c r="B39">
         <v>2.559650315362632</v>
@@ -28101,7 +28101,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>2012.760131220396</v>
+        <v>2018</v>
       </c>
       <c r="B40">
         <v>2.677711706303958</v>
@@ -28130,7 +28130,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>2013.753887176378</v>
+        <v>2019</v>
       </c>
       <c r="B41">
         <v>2.677711706303958</v>
@@ -28159,7 +28159,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>2014.748482867298</v>
+        <v>2020</v>
       </c>
       <c r="B42">
         <v>2.677711706303958</v>
@@ -28191,7 +28191,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>2015.743808959688</v>
+        <v>2021</v>
       </c>
       <c r="B43">
         <v>2.677711706303958</v>
@@ -36034,7 +36034,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>1980.543213616863</v>
+        <v>1981</v>
       </c>
       <c r="C3">
         <v>497.2603350671061</v>
@@ -36048,7 +36048,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>1981.114950098659</v>
+        <v>1982</v>
       </c>
       <c r="C4">
         <v>524.2381916996754</v>
@@ -36062,7 +36062,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>1981.714786492117</v>
+        <v>1983</v>
       </c>
       <c r="C5">
         <v>552.9283332839951</v>
@@ -36076,7 +36076,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>1982.342143124949</v>
+        <v>1984</v>
       </c>
       <c r="C6">
         <v>590.3937256111878</v>
@@ -36090,7 +36090,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>1982.996295456185</v>
+        <v>1985</v>
       </c>
       <c r="C7">
         <v>631.3004451970215</v>
@@ -36104,7 +36104,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>1983.676388483303</v>
+        <v>1986</v>
       </c>
       <c r="C8">
         <v>679.482107101619</v>
@@ -36118,7 +36118,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>1984.381453158783</v>
+        <v>1987</v>
       </c>
       <c r="C9">
         <v>728.7231537143068</v>
@@ -36132,7 +36132,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>1985.110424221068</v>
+        <v>1988</v>
       </c>
       <c r="C10">
         <v>789.2554336172796</v>
@@ -36146,7 +36146,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>1985.862158830663</v>
+        <v>1989</v>
       </c>
       <c r="C11">
         <v>852.9268620358881</v>
@@ -36160,7 +36160,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>1986.635455419496</v>
+        <v>1990</v>
       </c>
       <c r="C12">
         <v>912.4257382003009</v>
@@ -36180,7 +36180,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>1987.429072206402</v>
+        <v>1991</v>
       </c>
       <c r="C13">
         <v>969.7528895852668</v>
@@ -36200,7 +36200,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>1988.241744898137</v>
+        <v>1992</v>
       </c>
       <c r="C14">
         <v>1023.205432997977</v>
@@ -36220,7 +36220,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>1989.072203177044</v>
+        <v>1993</v>
       </c>
       <c r="C15">
         <v>1077.605491084556</v>
@@ -36240,7 +36240,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>1989.919185666661</v>
+        <v>1994</v>
       </c>
       <c r="C16">
         <v>1127.604012579879</v>
@@ -36260,7 +36260,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>1990.781453158784</v>
+        <v>1995</v>
       </c>
       <c r="C17">
         <v>1185.644315175096</v>
@@ -36283,7 +36283,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>1991.657799974372</v>
+        <v>1996</v>
       </c>
       <c r="C18">
         <v>1231.565527439179</v>
@@ -36306,7 +36306,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>1992.54706341181</v>
+        <v>1997</v>
       </c>
       <c r="C19">
         <v>1266.81088841621</v>
@@ -36329,7 +36329,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>1993.448131306364</v>
+        <v>1998</v>
       </c>
       <c r="C20">
         <v>1301.361722540278</v>
@@ -36352,7 +36352,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>1994.359947782439</v>
+        <v>1999</v>
       </c>
       <c r="C21">
         <v>1352.806707251734</v>
@@ -36375,7 +36375,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>1995.281517324803</v>
+        <v>2000</v>
       </c>
       <c r="C22">
         <v>1417.446580273146</v>
@@ -36401,7 +36401,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>1996.211907326465</v>
+        <v>2001</v>
       </c>
       <c r="C23">
         <v>1434.298497326216</v>
@@ -36427,7 +36427,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>1997.150249290606</v>
+        <v>2002</v>
       </c>
       <c r="C24">
         <v>1427.733532554018</v>
@@ -36453,7 +36453,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>1998.095738873069</v>
+        <v>2003</v>
       </c>
       <c r="C25">
         <v>1419.041521675893</v>
@@ -36479,7 +36479,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>1999.047634952404</v>
+        <v>2004</v>
       </c>
       <c r="C26">
         <v>1414.849185022744</v>
@@ -36505,7 +36505,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>2000.005257908035</v>
+        <v>2005</v>
       </c>
       <c r="C27">
         <v>1406.849986758152</v>
@@ -36531,7 +36531,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>2000.967987275541</v>
+        <v>2006</v>
       </c>
       <c r="C28">
         <v>1402.088970914117</v>
@@ -36560,7 +36560,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>2001.935258933062</v>
+        <v>2007</v>
       </c>
       <c r="B29">
         <v>3.58</v>
@@ -36592,7 +36592,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>2002.906561955728</v>
+        <v>2008</v>
       </c>
       <c r="B30">
         <v>3.58</v>
@@ -36624,7 +36624,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>2003.881435257018</v>
+        <v>2009</v>
       </c>
       <c r="B31">
         <v>3.58</v>
@@ -36656,7 +36656,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>2004.859464118004</v>
+        <v>2010</v>
       </c>
       <c r="B32">
         <v>3.617626907150524</v>
@@ -36688,7 +36688,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>2005.840276688195</v>
+        <v>2011</v>
       </c>
       <c r="B33">
         <v>3.617626907150524</v>
@@ -36720,7 +36720,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>2006.823540525633</v>
+        <v>2012</v>
       </c>
       <c r="B34">
         <v>3.642243470823309</v>
@@ -36752,7 +36752,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>2007.808959229388</v>
+        <v>2013</v>
       </c>
       <c r="B35">
         <v>3.642243470823309</v>
@@ -36784,7 +36784,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>2008.796269204708</v>
+        <v>2014</v>
       </c>
       <c r="B36">
         <v>3.661742098147085</v>
@@ -36816,7 +36816,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>2009.785236589964</v>
+        <v>2015</v>
       </c>
       <c r="B37">
         <v>3.661742098147085</v>
@@ -36848,7 +36848,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>2010.775654365047</v>
+        <v>2016</v>
       </c>
       <c r="B38">
         <v>3.69554787729059</v>
@@ -36880,7 +36880,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>2011.767339653018</v>
+        <v>2017</v>
       </c>
       <c r="B39">
         <v>3.69554787729059</v>
@@ -36912,7 +36912,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>2012.760131220396</v>
+        <v>2018</v>
       </c>
       <c r="B40">
         <v>3.710568982470408</v>
@@ -36944,7 +36944,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>2013.753887176378</v>
+        <v>2019</v>
       </c>
       <c r="B41">
         <v>3.710568982470408</v>
@@ -36979,7 +36979,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>2014.748482867298</v>
+        <v>2020</v>
       </c>
       <c r="B42">
         <v>3.710568982470408</v>
@@ -37014,7 +37014,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>2015.743808959688</v>
+        <v>2021</v>
       </c>
       <c r="B43">
         <v>3.710568982470408</v>
@@ -45172,42 +45172,42 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>1980.543213616863</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>1981.114950098659</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>1981.714786492117</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>1982.342143124949</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>1982.996295456185</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>1983.676388483303</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>1984.381453158783</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>1985.110424221068</v>
+        <v>1988</v>
       </c>
       <c r="G10">
         <v>3777.2353515625</v>
@@ -45218,7 +45218,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>1985.862158830663</v>
+        <v>1989</v>
       </c>
       <c r="F11">
         <v>236013170065.2563</v>
@@ -45232,7 +45232,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>1986.635455419496</v>
+        <v>1990</v>
       </c>
       <c r="F12">
         <v>234150873629.2721</v>
@@ -45246,7 +45246,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>1987.429072206402</v>
+        <v>1991</v>
       </c>
       <c r="F13">
         <v>235489996491.6208</v>
@@ -45260,7 +45260,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>1988.241744898137</v>
+        <v>1992</v>
       </c>
       <c r="F14">
         <v>222438415426.0146</v>
@@ -45274,7 +45274,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>1989.072203177044</v>
+        <v>1993</v>
       </c>
       <c r="C15">
         <v>848.700012207</v>
@@ -45291,7 +45291,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>1989.919185666661</v>
+        <v>1994</v>
       </c>
       <c r="C16">
         <v>830.6110053965269</v>
@@ -45308,7 +45308,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>1990.781453158784</v>
+        <v>1995</v>
       </c>
       <c r="C17">
         <v>853.9582956481574</v>
@@ -45328,7 +45328,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>1991.657799974372</v>
+        <v>1996</v>
       </c>
       <c r="C18">
         <v>853.8442756353741</v>
@@ -45348,7 +45348,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>1992.54706341181</v>
+        <v>1997</v>
       </c>
       <c r="C19">
         <v>835.8504892428547</v>
@@ -45368,7 +45368,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>1993.448131306364</v>
+        <v>1998</v>
       </c>
       <c r="C20">
         <v>811.3983245090303</v>
@@ -45388,7 +45388,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>1994.359947782439</v>
+        <v>1999</v>
       </c>
       <c r="C21">
         <v>825.0743533682354</v>
@@ -45408,7 +45408,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>1995.281517324803</v>
+        <v>2000</v>
       </c>
       <c r="C22">
         <v>870.9671770801482</v>
@@ -45431,7 +45431,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>1996.211907326465</v>
+        <v>2001</v>
       </c>
       <c r="C23">
         <v>876.3399219962512</v>
@@ -45454,7 +45454,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>1997.150249290606</v>
+        <v>2002</v>
       </c>
       <c r="C24">
         <v>907.7894497088561</v>
@@ -45483,7 +45483,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>1998.095738873069</v>
+        <v>2003</v>
       </c>
       <c r="C25">
         <v>946.2112348926883</v>
@@ -45512,7 +45512,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>1999.047634952404</v>
+        <v>2004</v>
       </c>
       <c r="C26">
         <v>1031.595085557127</v>
@@ -45541,7 +45541,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>2000.005257908035</v>
+        <v>2005</v>
       </c>
       <c r="C27">
         <v>1122.201950732881</v>
@@ -45570,7 +45570,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>2000.967987275541</v>
+        <v>2006</v>
       </c>
       <c r="C28">
         <v>1262.540313321752</v>
@@ -45602,7 +45602,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>2001.935258933062</v>
+        <v>2007</v>
       </c>
       <c r="B29">
         <v>2.37</v>
@@ -45637,7 +45637,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>2002.906561955728</v>
+        <v>2008</v>
       </c>
       <c r="B30">
         <v>2.37</v>
@@ -45672,7 +45672,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>2003.881435257018</v>
+        <v>2009</v>
       </c>
       <c r="B31">
         <v>2.37</v>
@@ -45707,7 +45707,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>2004.859464118004</v>
+        <v>2010</v>
       </c>
       <c r="B32">
         <v>2.520507628602099</v>
@@ -45742,7 +45742,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>2005.840276688195</v>
+        <v>2011</v>
       </c>
       <c r="B33">
         <v>2.520507628602099</v>
@@ -45777,7 +45777,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>2006.823540525633</v>
+        <v>2012</v>
       </c>
       <c r="B34">
         <v>2.548470417677215</v>
@@ -45812,7 +45812,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>2007.808959229388</v>
+        <v>2013</v>
       </c>
       <c r="B35">
         <v>2.548470417677215</v>
@@ -45847,7 +45847,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>2008.796269204708</v>
+        <v>2014</v>
       </c>
       <c r="B36">
         <v>2.606771041887845</v>
@@ -45882,7 +45882,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>2009.785236589964</v>
+        <v>2015</v>
       </c>
       <c r="B37">
         <v>2.606771041887845</v>
@@ -45917,7 +45917,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>2010.775654365047</v>
+        <v>2016</v>
       </c>
       <c r="B38">
         <v>2.593812347725074</v>
@@ -45952,7 +45952,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>2011.767339653018</v>
+        <v>2017</v>
       </c>
       <c r="B39">
         <v>2.593812347725074</v>
@@ -45987,7 +45987,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>2012.760131220396</v>
+        <v>2018</v>
       </c>
       <c r="B40">
         <v>2.649969895492308</v>
@@ -46022,7 +46022,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>2013.753887176378</v>
+        <v>2019</v>
       </c>
       <c r="B41">
         <v>2.649969895492308</v>
@@ -46057,7 +46057,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>2014.748482867298</v>
+        <v>2020</v>
       </c>
       <c r="B42">
         <v>2.649969895492308</v>
@@ -46092,7 +46092,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>2015.743808959688</v>
+        <v>2021</v>
       </c>
       <c r="B43">
         <v>2.649969895492308</v>
@@ -51943,7 +51943,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>1980.543213616863</v>
+        <v>1981</v>
       </c>
       <c r="C3">
         <v>8610.783074881665</v>
@@ -51957,7 +51957,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>1981.114950098659</v>
+        <v>1982</v>
       </c>
       <c r="C4">
         <v>8487.16342219276</v>
@@ -51971,7 +51971,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>1981.714786492117</v>
+        <v>1983</v>
       </c>
       <c r="C5">
         <v>8740.881637749695</v>
@@ -51985,7 +51985,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>1982.342143124949</v>
+        <v>1984</v>
       </c>
       <c r="C6">
         <v>9167.009978379841</v>
@@ -51999,7 +51999,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>1982.996295456185</v>
+        <v>1985</v>
       </c>
       <c r="C7">
         <v>9291.347508073912</v>
@@ -52013,7 +52013,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>1983.676388483303</v>
+        <v>1986</v>
       </c>
       <c r="C8">
         <v>9591.952041250657</v>
@@ -52027,7 +52027,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>1984.381453158783</v>
+        <v>1987</v>
       </c>
       <c r="C9">
         <v>10107.71243687603</v>
@@ -52041,7 +52041,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>1985.110424221068</v>
+        <v>1988</v>
       </c>
       <c r="C10">
         <v>10866.76871975164</v>
@@ -52055,7 +52055,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>1985.862158830663</v>
+        <v>1989</v>
       </c>
       <c r="C11">
         <v>11598.14349832826</v>
@@ -52069,7 +52069,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>1986.635455419496</v>
+        <v>1990</v>
       </c>
       <c r="C12">
         <v>12194.91233527157</v>
@@ -52083,7 +52083,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>1987.429072206402</v>
+        <v>1991</v>
       </c>
       <c r="C13">
         <v>12611.54332066375</v>
@@ -52097,7 +52097,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>1988.241744898137</v>
+        <v>1992</v>
       </c>
       <c r="C14">
         <v>13145.99496067312</v>
@@ -52111,7 +52111,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>1989.072203177044</v>
+        <v>1993</v>
       </c>
       <c r="C15">
         <v>13703.96826092292</v>
@@ -52125,7 +52125,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>1989.919185666661</v>
+        <v>1994</v>
       </c>
       <c r="C16">
         <v>14628.64598313802</v>
@@ -52139,7 +52139,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>1990.781453158784</v>
+        <v>1995</v>
       </c>
       <c r="C17">
         <v>15476.22334779521</v>
@@ -52156,7 +52156,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>1991.657799974372</v>
+        <v>1996</v>
       </c>
       <c r="C18">
         <v>16517.41461672324</v>
@@ -52173,7 +52173,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>1992.54706341181</v>
+        <v>1997</v>
       </c>
       <c r="C19">
         <v>18009.12833516386</v>
@@ -52196,7 +52196,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>1993.448131306364</v>
+        <v>1998</v>
       </c>
       <c r="C20">
         <v>19289.57046179907</v>
@@ -52219,7 +52219,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>1994.359947782439</v>
+        <v>1999</v>
       </c>
       <c r="C21">
         <v>20603.88986579866</v>
@@ -52242,7 +52242,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>1995.281517324803</v>
+        <v>2000</v>
       </c>
       <c r="C22">
         <v>22167.28954691587</v>
@@ -52268,7 +52268,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>1996.211907326465</v>
+        <v>2001</v>
       </c>
       <c r="C23">
         <v>23103.9915732712</v>
@@ -52294,7 +52294,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>1997.150249290606</v>
+        <v>2002</v>
       </c>
       <c r="C24">
         <v>24149.75150545856</v>
@@ -52320,7 +52320,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>1998.095738873069</v>
+        <v>2003</v>
       </c>
       <c r="C25">
         <v>25775.06119371982</v>
@@ -52346,7 +52346,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>1999.047634952404</v>
+        <v>2004</v>
       </c>
       <c r="C26">
         <v>27657.33628567227</v>
@@ -52372,7 +52372,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>2000.005257908035</v>
+        <v>2005</v>
       </c>
       <c r="C27">
         <v>29217.93232936998</v>
@@ -52398,7 +52398,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>2000.967987275541</v>
+        <v>2006</v>
       </c>
       <c r="C28">
         <v>30930.5181052879</v>
@@ -52424,7 +52424,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>2001.935258933062</v>
+        <v>2007</v>
       </c>
       <c r="B29">
         <v>3.84</v>
@@ -52453,7 +52453,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>2002.906561955728</v>
+        <v>2008</v>
       </c>
       <c r="B30">
         <v>3.84</v>
@@ -52482,7 +52482,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>2003.881435257018</v>
+        <v>2009</v>
       </c>
       <c r="B31">
         <v>3.84</v>
@@ -52511,7 +52511,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>2004.859464118004</v>
+        <v>2010</v>
       </c>
       <c r="B32">
         <v>3.852542302383508</v>
@@ -52540,7 +52540,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>2005.840276688195</v>
+        <v>2011</v>
       </c>
       <c r="B33">
         <v>3.852542302383508</v>
@@ -52569,7 +52569,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>2006.823540525633</v>
+        <v>2012</v>
       </c>
       <c r="B34">
         <v>3.888949209854179</v>
@@ -52598,7 +52598,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>2007.808959229388</v>
+        <v>2013</v>
       </c>
       <c r="B35">
         <v>3.888949209854179</v>
@@ -52627,7 +52627,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>2008.796269204708</v>
+        <v>2014</v>
       </c>
       <c r="B36">
         <v>3.900479193662629</v>
@@ -52656,7 +52656,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>2009.785236589964</v>
+        <v>2015</v>
       </c>
       <c r="B37">
         <v>3.900479193662629</v>
@@ -52685,7 +52685,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>2010.775654365047</v>
+        <v>2016</v>
       </c>
       <c r="B38">
         <v>3.933570725902005</v>
@@ -52714,7 +52714,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>2011.767339653018</v>
+        <v>2017</v>
       </c>
       <c r="B39">
         <v>3.933570725902005</v>
@@ -52743,7 +52743,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>2012.760131220396</v>
+        <v>2018</v>
       </c>
       <c r="B40">
         <v>3.918847459235676</v>
@@ -52772,7 +52772,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>2013.753887176378</v>
+        <v>2019</v>
       </c>
       <c r="B41">
         <v>3.918847459235676</v>
@@ -52801,7 +52801,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>2014.748482867298</v>
+        <v>2020</v>
       </c>
       <c r="B42">
         <v>3.918847459235676</v>
@@ -52830,7 +52830,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>2015.743808959688</v>
+        <v>2021</v>
       </c>
       <c r="B43">
         <v>3.918847459235676</v>
@@ -55042,7 +55042,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>1980.543213616863</v>
+        <v>1981</v>
       </c>
       <c r="C3">
         <v>139.6408671632776</v>
@@ -55059,7 +55059,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>1981.114950098659</v>
+        <v>1982</v>
       </c>
       <c r="C4">
         <v>157.1287297559049</v>
@@ -55076,7 +55076,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>1981.714786492117</v>
+        <v>1983</v>
       </c>
       <c r="C5">
         <v>175.8619900247107</v>
@@ -55093,7 +55093,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>1982.342143124949</v>
+        <v>1984</v>
       </c>
       <c r="C6">
         <v>210.4904905727857</v>
@@ -55110,7 +55110,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>1982.996295456185</v>
+        <v>1985</v>
       </c>
       <c r="C7">
         <v>257.8709742847016</v>
@@ -55127,7 +55127,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>1983.676388483303</v>
+        <v>1986</v>
       </c>
       <c r="C8">
         <v>305.334776596422</v>
@@ -55144,7 +55144,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>1984.381453158783</v>
+        <v>1987</v>
       </c>
       <c r="C9">
         <v>377.9210614217858</v>
@@ -55161,7 +55161,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>1985.110424221068</v>
+        <v>1988</v>
       </c>
       <c r="C10">
         <v>449.2114186277827</v>
@@ -55178,7 +55178,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>1985.862158830663</v>
+        <v>1989</v>
       </c>
       <c r="C11">
         <v>494.4148374699901</v>
@@ -55195,7 +55195,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>1986.635455419496</v>
+        <v>1990</v>
       </c>
       <c r="C12">
         <v>554.9438117995345</v>
@@ -55212,7 +55212,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>1987.429072206402</v>
+        <v>1991</v>
       </c>
       <c r="C13">
         <v>637.5969763838788</v>
@@ -55229,7 +55229,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>1988.241744898137</v>
+        <v>1992</v>
       </c>
       <c r="C14">
         <v>758.2113540721926</v>
@@ -55246,7 +55246,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>1989.072203177044</v>
+        <v>1993</v>
       </c>
       <c r="C15">
         <v>895.878639094859</v>
@@ -55263,7 +55263,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>1989.919185666661</v>
+        <v>1994</v>
       </c>
       <c r="C16">
         <v>1037.046141463863</v>
@@ -55280,7 +55280,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>1990.781453158784</v>
+        <v>1995</v>
       </c>
       <c r="C17">
         <v>1115.783978317165</v>
@@ -55300,7 +55300,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>1991.657799974372</v>
+        <v>1996</v>
       </c>
       <c r="C18">
         <v>1211.976556519142</v>
@@ -55320,7 +55320,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>1992.54706341181</v>
+        <v>1997</v>
       </c>
       <c r="C19">
         <v>1357.067145157865</v>
@@ -55340,7 +55340,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>1993.448131306364</v>
+        <v>1998</v>
       </c>
       <c r="C20">
         <v>1541.667220579936</v>
@@ -55360,7 +55360,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>1994.359947782439</v>
+        <v>1999</v>
       </c>
       <c r="C21">
         <v>1829.693188430617</v>
@@ -55380,7 +55380,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>1995.281517324803</v>
+        <v>2000</v>
       </c>
       <c r="C22">
         <v>2167.988890820083</v>
@@ -55403,7 +55403,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>1996.211907326465</v>
+        <v>2001</v>
       </c>
       <c r="C23">
         <v>2503.85168696209</v>
@@ -55426,7 +55426,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>1997.150249290606</v>
+        <v>2002</v>
       </c>
       <c r="C24">
         <v>2910.706440659781</v>
@@ -55449,7 +55449,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>1998.095738873069</v>
+        <v>2003</v>
       </c>
       <c r="C25">
         <v>3353.557651043863</v>
@@ -55472,7 +55472,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>1999.047634952404</v>
+        <v>2004</v>
       </c>
       <c r="C26">
         <v>3945.3535727182</v>
@@ -55498,7 +55498,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>2000.005257908035</v>
+        <v>2005</v>
       </c>
       <c r="C27">
         <v>4530.003070924232</v>
@@ -55524,7 +55524,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>2000.967987275541</v>
+        <v>2006</v>
       </c>
       <c r="C28">
         <v>5037.838873766123</v>
@@ -55550,7 +55550,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>2001.935258933062</v>
+        <v>2007</v>
       </c>
       <c r="B29">
         <v>3.32</v>
@@ -55579,7 +55579,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>2002.906561955728</v>
+        <v>2008</v>
       </c>
       <c r="B30">
         <v>3.32</v>
@@ -55608,7 +55608,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>2003.881435257018</v>
+        <v>2009</v>
       </c>
       <c r="B31">
         <v>3.32</v>
@@ -55637,7 +55637,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>2004.859464118004</v>
+        <v>2010</v>
       </c>
       <c r="B32">
         <v>3.42660957025982</v>
@@ -55669,7 +55669,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>2005.840276688195</v>
+        <v>2011</v>
       </c>
       <c r="B33">
         <v>3.42660957025982</v>
@@ -55701,7 +55701,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>2006.823540525633</v>
+        <v>2012</v>
       </c>
       <c r="B34">
         <v>3.470505229940169</v>
@@ -55736,7 +55736,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>2007.808959229388</v>
+        <v>2013</v>
       </c>
       <c r="B35">
         <v>3.470505229940169</v>
@@ -55771,7 +55771,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>2008.796269204708</v>
+        <v>2014</v>
       </c>
       <c r="B36">
         <v>3.494845415896632</v>
@@ -55806,7 +55806,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>2009.785236589964</v>
+        <v>2015</v>
       </c>
       <c r="B37">
         <v>3.494845415896632</v>
@@ -55841,7 +55841,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>2010.775654365047</v>
+        <v>2016</v>
       </c>
       <c r="B38">
         <v>3.554847410771635</v>
@@ -55876,7 +55876,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>2011.767339653018</v>
+        <v>2017</v>
       </c>
       <c r="B39">
         <v>3.554847410771635</v>
@@ -55911,7 +55911,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>2012.760131220396</v>
+        <v>2018</v>
       </c>
       <c r="B40">
         <v>3.573484380015022</v>
@@ -55946,7 +55946,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>2013.753887176378</v>
+        <v>2019</v>
       </c>
       <c r="B41">
         <v>3.573484380015022</v>
@@ -55981,7 +55981,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>2014.748482867298</v>
+        <v>2020</v>
       </c>
       <c r="B42">
         <v>3.573484380015022</v>
@@ -56016,7 +56016,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>2015.743808959688</v>
+        <v>2021</v>
       </c>
       <c r="B43">
         <v>3.573484380015022</v>
@@ -59047,27 +59047,27 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>1980.543213616863</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>1981.114950098659</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>1981.714786492117</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>1982.342143124949</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>1982.996295456185</v>
+        <v>1985</v>
       </c>
       <c r="G7">
         <v>231.4522858261834</v>
@@ -59075,7 +59075,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>1983.676388483303</v>
+        <v>1986</v>
       </c>
       <c r="G8">
         <v>335.3842671418855</v>
@@ -59083,7 +59083,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>1984.381453158783</v>
+        <v>1987</v>
       </c>
       <c r="G9">
         <v>429.6064470346161</v>
@@ -59091,7 +59091,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>1985.110424221068</v>
+        <v>1988</v>
       </c>
       <c r="G10">
         <v>417.1345640846068</v>
@@ -59099,7 +59099,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>1985.862158830663</v>
+        <v>1989</v>
       </c>
       <c r="G11">
         <v>328.5798968818441</v>
@@ -59107,7 +59107,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>1986.635455419496</v>
+        <v>1990</v>
       </c>
       <c r="G12">
         <v>271.137494771078</v>
@@ -59115,7 +59115,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>1987.429072206402</v>
+        <v>1991</v>
       </c>
       <c r="G13">
         <v>241.0940691806892</v>
@@ -59123,7 +59123,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>1988.241744898137</v>
+        <v>1992</v>
       </c>
       <c r="G14">
         <v>219.478479676885</v>
@@ -59131,7 +59131,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>1989.072203177044</v>
+        <v>1993</v>
       </c>
       <c r="G15">
         <v>211.9904154417374</v>
@@ -59139,7 +59139,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>1989.919185666661</v>
+        <v>1994</v>
       </c>
       <c r="G16">
         <v>213.7566548499584</v>
@@ -59147,7 +59147,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>1990.781453158784</v>
+        <v>1995</v>
       </c>
       <c r="E17">
         <v>1751</v>
@@ -59158,7 +59158,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>1991.657799974372</v>
+        <v>1996</v>
       </c>
       <c r="C18">
         <v>82.9000015259</v>
@@ -59172,7 +59172,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>1992.54706341181</v>
+        <v>1997</v>
       </c>
       <c r="C19">
         <v>94.14452173718364</v>
@@ -59186,7 +59186,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>1993.448131306364</v>
+        <v>1998</v>
       </c>
       <c r="C20">
         <v>94.71574422974165</v>
@@ -59200,7 +59200,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>1994.359947782439</v>
+        <v>1999</v>
       </c>
       <c r="C21">
         <v>95.91992154703148</v>
@@ -59214,7 +59214,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>1995.281517324803</v>
+        <v>2000</v>
       </c>
       <c r="C22">
         <v>101.7981510401819</v>
@@ -59231,7 +59231,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>1996.211907326465</v>
+        <v>2001</v>
       </c>
       <c r="C23">
         <v>110.0591392072878</v>
@@ -59248,7 +59248,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>1997.150249290606</v>
+        <v>2002</v>
       </c>
       <c r="C24">
         <v>119.5349309134344</v>
@@ -59265,7 +59265,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>1998.095738873069</v>
+        <v>2003</v>
       </c>
       <c r="C25">
         <v>129.0650381575176</v>
@@ -59282,7 +59282,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>1999.047634952404</v>
+        <v>2004</v>
       </c>
       <c r="C26">
         <v>146.684608120684</v>
@@ -59299,7 +59299,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>2000.005257908035</v>
+        <v>2005</v>
       </c>
       <c r="C27">
         <v>162.8228426718678</v>
@@ -59316,7 +59316,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>2000.967987275541</v>
+        <v>2006</v>
       </c>
       <c r="C28">
         <v>172.7630487458846</v>
@@ -59333,7 +59333,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>2001.935258933062</v>
+        <v>2007</v>
       </c>
       <c r="B29">
         <v>2.89</v>
@@ -59353,7 +59353,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>2002.906561955728</v>
+        <v>2008</v>
       </c>
       <c r="B30">
         <v>2.89</v>
@@ -59373,7 +59373,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>2003.881435257018</v>
+        <v>2009</v>
       </c>
       <c r="B31">
         <v>2.89</v>
@@ -59396,7 +59396,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>2004.859464118004</v>
+        <v>2010</v>
       </c>
       <c r="B32">
         <v>2.933898058342279</v>
@@ -59419,7 +59419,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>2005.840276688195</v>
+        <v>2011</v>
       </c>
       <c r="B33">
         <v>2.933898058342279</v>
@@ -59445,7 +59445,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>2006.823540525633</v>
+        <v>2012</v>
       </c>
       <c r="B34">
         <v>2.964967498147728</v>
@@ -59471,7 +59471,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>2007.808959229388</v>
+        <v>2013</v>
       </c>
       <c r="B35">
         <v>2.964967498147728</v>
@@ -59497,7 +59497,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>2008.796269204708</v>
+        <v>2014</v>
       </c>
       <c r="B36">
         <v>3.040752058577848</v>
@@ -59523,7 +59523,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>2009.785236589964</v>
+        <v>2015</v>
       </c>
       <c r="B37">
         <v>3.040752058577848</v>
@@ -59549,7 +59549,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>2010.775654365047</v>
+        <v>2016</v>
       </c>
       <c r="B38">
         <v>3.017610327563435</v>
@@ -59575,7 +59575,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>2011.767339653018</v>
+        <v>2017</v>
       </c>
       <c r="B39">
         <v>3.017610327563435</v>
@@ -59601,7 +59601,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>2012.760131220396</v>
+        <v>2018</v>
       </c>
       <c r="B40">
         <v>3.102896959222239</v>
@@ -59627,7 +59627,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>2013.753887176378</v>
+        <v>2019</v>
       </c>
       <c r="B41">
         <v>3.102896959222239</v>
@@ -59653,7 +59653,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>2014.748482867298</v>
+        <v>2020</v>
       </c>
       <c r="B42">
         <v>3.102896959222239</v>
@@ -59679,7 +59679,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>2015.743808959688</v>
+        <v>2021</v>
       </c>
       <c r="B43">
         <v>3.102896959222239</v>
@@ -66151,7 +66151,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>1980.543213616863</v>
+        <v>1981</v>
       </c>
       <c r="C3">
         <v>283.9014550256243</v>
@@ -66171,7 +66171,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>1981.114950098659</v>
+        <v>1982</v>
       </c>
       <c r="C4">
         <v>297.3624103451832</v>
@@ -66191,7 +66191,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>1981.714786492117</v>
+        <v>1983</v>
       </c>
       <c r="C5">
         <v>319.6170489060204</v>
@@ -66211,7 +66211,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>1982.342143124949</v>
+        <v>1984</v>
       </c>
       <c r="C6">
         <v>353.4617522512488</v>
@@ -66231,7 +66231,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>1982.996295456185</v>
+        <v>1985</v>
       </c>
       <c r="C7">
         <v>362.8975673963511</v>
@@ -66251,7 +66251,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>1983.676388483303</v>
+        <v>1986</v>
       </c>
       <c r="C8">
         <v>350.5130517617288</v>
@@ -66271,7 +66271,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>1984.381453158783</v>
+        <v>1987</v>
       </c>
       <c r="C9">
         <v>333.0301037696174</v>
@@ -66291,7 +66291,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>1985.110424221068</v>
+        <v>1988</v>
       </c>
       <c r="C10">
         <v>313.9463375007859</v>
@@ -66311,7 +66311,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>1985.862158830663</v>
+        <v>1989</v>
       </c>
       <c r="C11">
         <v>293.006345130637</v>
@@ -66331,7 +66331,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>1986.635455419496</v>
+        <v>1990</v>
       </c>
       <c r="C12">
         <v>271.7377518629186</v>
@@ -66351,7 +66351,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>1987.429072206402</v>
+        <v>1991</v>
       </c>
       <c r="C13">
         <v>257.056991010637</v>
@@ -66371,7 +66371,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>1988.241744898137</v>
+        <v>1992</v>
       </c>
       <c r="C14">
         <v>258.1491687470746</v>
@@ -66391,7 +66391,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>1989.072203177044</v>
+        <v>1993</v>
       </c>
       <c r="C15">
         <v>271.1954305114297</v>
@@ -66411,7 +66411,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>1989.919185666661</v>
+        <v>1994</v>
       </c>
       <c r="C16">
         <v>272.1071721341456</v>
@@ -66431,7 +66431,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>1990.781453158784</v>
+        <v>1995</v>
       </c>
       <c r="C17">
         <v>270.5785615700062</v>
@@ -66454,7 +66454,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>1991.657799974372</v>
+        <v>1996</v>
       </c>
       <c r="C18">
         <v>280.3052670431676</v>
@@ -66477,7 +66477,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>1992.54706341181</v>
+        <v>1997</v>
       </c>
       <c r="C19">
         <v>303.6254568097409</v>
@@ -66500,7 +66500,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>1993.448131306364</v>
+        <v>1998</v>
       </c>
       <c r="C20">
         <v>341.9579750488836</v>
@@ -66523,7 +66523,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>1994.359947782439</v>
+        <v>1999</v>
       </c>
       <c r="C21">
         <v>398.8562170729925</v>
@@ -66546,7 +66546,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>1995.281517324803</v>
+        <v>2000</v>
       </c>
       <c r="C22">
         <v>446.0311184698353</v>
@@ -66572,7 +66572,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>1996.211907326465</v>
+        <v>2001</v>
       </c>
       <c r="C23">
         <v>496.3839228405097</v>
@@ -66598,7 +66598,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>1997.150249290606</v>
+        <v>2002</v>
       </c>
       <c r="C24">
         <v>542.985777480373</v>
@@ -66624,7 +66624,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>1998.095738873069</v>
+        <v>2003</v>
       </c>
       <c r="C25">
         <v>599.3101391438358</v>
@@ -66650,7 +66650,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>1999.047634952404</v>
+        <v>2004</v>
       </c>
       <c r="C26">
         <v>652.4612624681749</v>
@@ -66676,7 +66676,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>2000.005257908035</v>
+        <v>2005</v>
       </c>
       <c r="C27">
         <v>696.0474459373223</v>
@@ -66702,7 +66702,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>2000.967987275541</v>
+        <v>2006</v>
       </c>
       <c r="C28">
         <v>782.2788752758996</v>
@@ -66731,7 +66731,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>2001.935258933062</v>
+        <v>2007</v>
       </c>
       <c r="B29">
         <v>3.53</v>
@@ -66766,7 +66766,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>2002.906561955728</v>
+        <v>2008</v>
       </c>
       <c r="B30">
         <v>3.53</v>
@@ -66801,7 +66801,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>2003.881435257018</v>
+        <v>2009</v>
       </c>
       <c r="B31">
         <v>3.53</v>
@@ -66836,7 +66836,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>2004.859464118004</v>
+        <v>2010</v>
       </c>
       <c r="B32">
         <v>3.486101941657721</v>
@@ -66871,7 +66871,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>2005.840276688195</v>
+        <v>2011</v>
       </c>
       <c r="B33">
         <v>3.486101941657721</v>
@@ -66906,7 +66906,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>2006.823540525633</v>
+        <v>2012</v>
       </c>
       <c r="B34">
         <v>3.572538277878974</v>
@@ -66941,7 +66941,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>2007.808959229388</v>
+        <v>2013</v>
       </c>
       <c r="B35">
         <v>3.572538277878974</v>
@@ -66976,7 +66976,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>2008.796269204708</v>
+        <v>2014</v>
       </c>
       <c r="B36">
         <v>3.516120055972515</v>
@@ -67011,7 +67011,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>2009.785236589964</v>
+        <v>2015</v>
       </c>
       <c r="B37">
         <v>3.516120055972515</v>
@@ -67046,7 +67046,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>2010.775654365047</v>
+        <v>2016</v>
       </c>
       <c r="B38">
         <v>3.60966454150394</v>
@@ -67081,7 +67081,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>2011.767339653018</v>
+        <v>2017</v>
       </c>
       <c r="B39">
         <v>3.60966454150394</v>
@@ -67116,7 +67116,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>2012.760131220396</v>
+        <v>2018</v>
       </c>
       <c r="B40">
         <v>3.532057106273968</v>
@@ -67151,7 +67151,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>2013.753887176378</v>
+        <v>2019</v>
       </c>
       <c r="B41">
         <v>3.532057106273968</v>
@@ -67186,7 +67186,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>2014.748482867298</v>
+        <v>2020</v>
       </c>
       <c r="B42">
         <v>3.532057106273968</v>
@@ -67221,7 +67221,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>2015.743808959688</v>
+        <v>2021</v>
       </c>
       <c r="B43">
         <v>3.532057106273968</v>
